--- a/code/PSNR.xlsx
+++ b/code/PSNR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{09BF041D-469F-4F76-A2C4-1157EA400233}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{45C42848-A56F-46B5-AD1B-191834846373}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{76A4E1AD-6335-4423-A7B2-C61933B9ED03}"/>
   </bookViews>
@@ -28,18 +28,23 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Image Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB-DES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB-pair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB-pair1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -471,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7515BCCE-F5DC-4AD5-BE29-9C7ED24D6EB9}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B2" sqref="B2:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -496,6 +501,856 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>52.434626436442031</v>
+      </c>
+      <c r="C2">
+        <v>52.49579499308021</v>
+      </c>
+      <c r="D2">
+        <v>52.49579499308021</v>
+      </c>
+      <c r="E2">
+        <v>52.49579499308021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>52.496684991452355</v>
+      </c>
+      <c r="C3">
+        <v>52.488977724779829</v>
+      </c>
+      <c r="D3">
+        <v>52.488977724779829</v>
+      </c>
+      <c r="E3">
+        <v>52.488977724779829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>52.419929485634277</v>
+      </c>
+      <c r="C4">
+        <v>52.48434019792186</v>
+      </c>
+      <c r="D4">
+        <v>52.48434019792186</v>
+      </c>
+      <c r="E4">
+        <v>52.48434019792186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>52.487299749738256</v>
+      </c>
+      <c r="C5">
+        <v>52.480791395892972</v>
+      </c>
+      <c r="D5">
+        <v>52.480791395892972</v>
+      </c>
+      <c r="E5">
+        <v>52.480791395892972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>52.586921643614431</v>
+      </c>
+      <c r="C6">
+        <v>52.518895026832418</v>
+      </c>
+      <c r="D6">
+        <v>52.518895026832418</v>
+      </c>
+      <c r="E6">
+        <v>52.518895026832418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>53.200175140427213</v>
+      </c>
+      <c r="C7">
+        <v>52.503118178513908</v>
+      </c>
+      <c r="D7">
+        <v>52.503118178513908</v>
+      </c>
+      <c r="E7">
+        <v>52.503118178513908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>52.545617857363126</v>
+      </c>
+      <c r="C8">
+        <v>52.470752176203476</v>
+      </c>
+      <c r="D8">
+        <v>52.470752176203476</v>
+      </c>
+      <c r="E8">
+        <v>52.470752176203476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>52.56034566173993</v>
+      </c>
+      <c r="C9">
+        <v>52.512041429688935</v>
+      </c>
+      <c r="D9">
+        <v>52.512041429688935</v>
+      </c>
+      <c r="E9">
+        <v>52.512041429688935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>52.331729698730413</v>
+      </c>
+      <c r="C10">
+        <v>52.492138025867767</v>
+      </c>
+      <c r="D10">
+        <v>52.492138025867767</v>
+      </c>
+      <c r="E10">
+        <v>52.492138025867767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>52.231028494826255</v>
+      </c>
+      <c r="C11">
+        <v>52.488188008706459</v>
+      </c>
+      <c r="D11">
+        <v>52.488188008706459</v>
+      </c>
+      <c r="E11">
+        <v>52.488188008706459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>52.402087586674298</v>
+      </c>
+      <c r="C12">
+        <v>52.495201762142152</v>
+      </c>
+      <c r="D12">
+        <v>52.495201762142152</v>
+      </c>
+      <c r="E12">
+        <v>52.495201762142152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>53.708619788001599</v>
+      </c>
+      <c r="C13">
+        <v>52.510751382206102</v>
+      </c>
+      <c r="D13">
+        <v>52.510751382206102</v>
+      </c>
+      <c r="E13">
+        <v>52.510751382206102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>53.126151775837215</v>
+      </c>
+      <c r="C14">
+        <v>52.505991446775539</v>
+      </c>
+      <c r="D14">
+        <v>52.505991446775539</v>
+      </c>
+      <c r="E14">
+        <v>52.505991446775539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>52.56416098745342</v>
+      </c>
+      <c r="C15">
+        <v>52.478919585514056</v>
+      </c>
+      <c r="D15">
+        <v>52.478919585514056</v>
+      </c>
+      <c r="E15">
+        <v>52.478919585514056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>52.593692259225506</v>
+      </c>
+      <c r="C16">
+        <v>52.47793474610237</v>
+      </c>
+      <c r="D16">
+        <v>52.47793474610237</v>
+      </c>
+      <c r="E16">
+        <v>52.47793474610237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>52.525958587603597</v>
+      </c>
+      <c r="C17">
+        <v>52.468491633446064</v>
+      </c>
+      <c r="D17">
+        <v>52.468491633446064</v>
+      </c>
+      <c r="E17">
+        <v>52.468491633446064</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>52.481974007723558</v>
+      </c>
+      <c r="C18">
+        <v>52.464759399666157</v>
+      </c>
+      <c r="D18">
+        <v>52.464759399666157</v>
+      </c>
+      <c r="E18">
+        <v>52.464759399666157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>52.471538727834535</v>
+      </c>
+      <c r="C19">
+        <v>52.490952643446469</v>
+      </c>
+      <c r="D19">
+        <v>52.490952643446469</v>
+      </c>
+      <c r="E19">
+        <v>52.490952643446469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>52.530939829196456</v>
+      </c>
+      <c r="C20">
+        <v>52.507577512327039</v>
+      </c>
+      <c r="D20">
+        <v>52.507577512327039</v>
+      </c>
+      <c r="E20">
+        <v>52.507577512327039</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>52.505198631161612</v>
+      </c>
+      <c r="C21">
+        <v>52.470653867265028</v>
+      </c>
+      <c r="D21">
+        <v>52.470653867265028</v>
+      </c>
+      <c r="E21">
+        <v>52.470653867265028</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>52.474292780898992</v>
+      </c>
+      <c r="C22">
+        <v>52.492928460599835</v>
+      </c>
+      <c r="D22">
+        <v>52.492928460599835</v>
+      </c>
+      <c r="E22">
+        <v>52.492928460599835</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>53.11074537819637</v>
+      </c>
+      <c r="C23">
+        <v>52.483156941674679</v>
+      </c>
+      <c r="D23">
+        <v>52.483156941674679</v>
+      </c>
+      <c r="E23">
+        <v>52.483156941674679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>52.50926334189127</v>
+      </c>
+      <c r="C24">
+        <v>52.498564476068594</v>
+      </c>
+      <c r="D24">
+        <v>52.498564476068594</v>
+      </c>
+      <c r="E24">
+        <v>52.498564476068594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>52.556232881805116</v>
+      </c>
+      <c r="C25">
+        <v>52.492829648390483</v>
+      </c>
+      <c r="D25">
+        <v>52.492829648390483</v>
+      </c>
+      <c r="E25">
+        <v>52.492829648390483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>52.53074046979782</v>
+      </c>
+      <c r="C26">
+        <v>52.493719039220636</v>
+      </c>
+      <c r="D26">
+        <v>52.493719039220636</v>
+      </c>
+      <c r="E26">
+        <v>52.493719039220636</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>52.486411672407776</v>
+      </c>
+      <c r="C27">
+        <v>52.492138025867767</v>
+      </c>
+      <c r="D27">
+        <v>52.492138025867767</v>
+      </c>
+      <c r="E27">
+        <v>52.492138025867767</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>52.872152747307879</v>
+      </c>
+      <c r="C28">
+        <v>52.492829648390483</v>
+      </c>
+      <c r="D28">
+        <v>52.492829648390483</v>
+      </c>
+      <c r="E28">
+        <v>52.492829648390483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>52.473997620234712</v>
+      </c>
+      <c r="C29">
+        <v>52.496487198273876</v>
+      </c>
+      <c r="D29">
+        <v>52.496487198273876</v>
+      </c>
+      <c r="E29">
+        <v>52.496487198273876</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>52.664040572465893</v>
+      </c>
+      <c r="C30">
+        <v>52.497080604835972</v>
+      </c>
+      <c r="D30">
+        <v>52.497080604835972</v>
+      </c>
+      <c r="E30">
+        <v>52.497080604835972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>52.510552947370137</v>
+      </c>
+      <c r="C31">
+        <v>52.486214346549282</v>
+      </c>
+      <c r="D31">
+        <v>52.486214346549282</v>
+      </c>
+      <c r="E31">
+        <v>52.486214346549282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>52.712204138100361</v>
+      </c>
+      <c r="C32">
+        <v>52.474391172245049</v>
+      </c>
+      <c r="D32">
+        <v>52.474391172245049</v>
+      </c>
+      <c r="E32">
+        <v>52.474391172245049</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>52.426541825089373</v>
+      </c>
+      <c r="C33">
+        <v>52.470064060362489</v>
+      </c>
+      <c r="D33">
+        <v>52.470064060362489</v>
+      </c>
+      <c r="E33">
+        <v>52.470064060362489</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>53.13977769981031</v>
+      </c>
+      <c r="C34">
+        <v>52.508569097522226</v>
+      </c>
+      <c r="D34">
+        <v>52.508569097522226</v>
+      </c>
+      <c r="E34">
+        <v>52.508569097522226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>52.149193260039965</v>
+      </c>
+      <c r="C35">
+        <v>52.490063818907643</v>
+      </c>
+      <c r="D35">
+        <v>52.490063818907643</v>
+      </c>
+      <c r="E35">
+        <v>52.490063818907643</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>52.262493496192931</v>
+      </c>
+      <c r="C36">
+        <v>52.490360073542561</v>
+      </c>
+      <c r="D36">
+        <v>52.490360073542561</v>
+      </c>
+      <c r="E36">
+        <v>52.490360073542561</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>52.384511436802292</v>
+      </c>
+      <c r="C37">
+        <v>52.488089304293482</v>
+      </c>
+      <c r="D37">
+        <v>52.488089304293482</v>
+      </c>
+      <c r="E37">
+        <v>52.488089304293482</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>52.506090558904418</v>
+      </c>
+      <c r="C38">
+        <v>52.525460777534512</v>
+      </c>
+      <c r="D38">
+        <v>52.525460777534512</v>
+      </c>
+      <c r="E38">
+        <v>52.525460777534512</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>52.477245491371278</v>
+      </c>
+      <c r="C39">
+        <v>52.491248958720973</v>
+      </c>
+      <c r="D39">
+        <v>52.491248958720973</v>
+      </c>
+      <c r="E39">
+        <v>52.491248958720973</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>52.246125653085194</v>
+      </c>
+      <c r="C40">
+        <v>52.47783627444322</v>
+      </c>
+      <c r="D40">
+        <v>52.47783627444322</v>
+      </c>
+      <c r="E40">
+        <v>52.47783627444322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>52.040554249016715</v>
+      </c>
+      <c r="C41">
+        <v>52.494806319863791</v>
+      </c>
+      <c r="D41">
+        <v>52.494806319863791</v>
+      </c>
+      <c r="E41">
+        <v>52.494806319863791</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>52.085033409123369</v>
+      </c>
+      <c r="C42">
+        <v>52.488385424262617</v>
+      </c>
+      <c r="D42">
+        <v>52.488385424262617</v>
+      </c>
+      <c r="E42">
+        <v>52.488385424262617</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>52.48029873599215</v>
+      </c>
+      <c r="C43">
+        <v>52.479412088981206</v>
+      </c>
+      <c r="D43">
+        <v>52.479412088981206</v>
+      </c>
+      <c r="E43">
+        <v>52.479412088981206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>52.735233736412525</v>
+      </c>
+      <c r="C44">
+        <v>52.489471370258052</v>
+      </c>
+      <c r="D44">
+        <v>52.489471370258052</v>
+      </c>
+      <c r="E44">
+        <v>52.489471370258052</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>52.527551963386315</v>
+      </c>
+      <c r="C45">
+        <v>52.507379222453068</v>
+      </c>
+      <c r="D45">
+        <v>52.507379222453068</v>
+      </c>
+      <c r="E45">
+        <v>52.507379222453068</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>52.541419070552955</v>
+      </c>
+      <c r="C46">
+        <v>52.491940439661221</v>
+      </c>
+      <c r="D46">
+        <v>52.491940439661221</v>
+      </c>
+      <c r="E46">
+        <v>52.491940439661221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>52.510354521600519</v>
+      </c>
+      <c r="C47">
+        <v>52.490360073542561</v>
+      </c>
+      <c r="D47">
+        <v>52.490360073542561</v>
+      </c>
+      <c r="E47">
+        <v>52.490360073542561</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>52.518895026832418</v>
+      </c>
+      <c r="C48">
+        <v>52.501434732209532</v>
+      </c>
+      <c r="D48">
+        <v>52.501434732209532</v>
+      </c>
+      <c r="E48">
+        <v>52.501434732209532</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>52.660547311718119</v>
+      </c>
+      <c r="C49">
+        <v>52.502523946479187</v>
+      </c>
+      <c r="D49">
+        <v>52.502523946479187</v>
+      </c>
+      <c r="E49">
+        <v>52.502523946479187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>52.432287170374366</v>
+      </c>
+      <c r="C50">
+        <v>52.485523776640768</v>
+      </c>
+      <c r="D50">
+        <v>52.485523776640768</v>
+      </c>
+      <c r="E50">
+        <v>52.485523776640768</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>52.587931513359493</v>
+      </c>
+      <c r="C51">
+        <v>52.49510289819689</v>
+      </c>
+      <c r="D51">
+        <v>52.49510289819689</v>
+      </c>
+      <c r="E51">
+        <v>52.49510289819689</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/PSNR.xlsx
+++ b/code/PSNR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E25BA354-53E4-4FCD-B979-17C11E098A5C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{82E2D0E8-57F2-4F2A-8921-687B2FE85C79}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{F9E733B5-AFFC-46A0-B035-1FD36927621C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{0462F62A-EC1A-4AF6-A28B-EEE6CB101309}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,19 +28,15 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Image Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB_pair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB-pair-ultar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -403,7 +399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3A8B4B-ECEE-47C1-8706-1B07BF84B9E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FCC77F-61E7-4B82-8FE7-71083203EC16}">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/code/PSNR.xlsx
+++ b/code/PSNR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{82E2D0E8-57F2-4F2A-8921-687B2FE85C79}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B8CB7C0C-34F0-428A-8687-0A36F2840A39}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{0462F62A-EC1A-4AF6-A28B-EEE6CB101309}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{047A2B34-79FB-436B-9C99-017AA34A6AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,19 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Image Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB_pair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB-pair-ultar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -92,6 +96,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -108,10 +180,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="004040"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="D1E2D6"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -399,7 +471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FCC77F-61E7-4B82-8FE7-71083203EC16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3EDE64-3313-4595-BCB7-E58CABA61B58}">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -427,13 +499,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>52.434626436442031</v>
+        <v>44545</v>
       </c>
       <c r="C2">
-        <v>52.49579499308021</v>
+        <v>43922</v>
       </c>
       <c r="D2">
-        <v>36.698461255034232</v>
+        <v>44545</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -441,13 +513,13 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>52.496684991452355</v>
+        <v>43913</v>
       </c>
       <c r="C3">
-        <v>52.488977724779829</v>
+        <v>43991</v>
       </c>
       <c r="D3">
-        <v>36.844455362068651</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -455,13 +527,13 @@
         <v>100</v>
       </c>
       <c r="B4">
-        <v>52.430143949469077</v>
+        <v>44591</v>
       </c>
       <c r="C4">
-        <v>52.504604114416125</v>
+        <v>43833</v>
       </c>
       <c r="D4">
-        <v>33.295742491362255</v>
+        <v>44591</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -469,13 +541,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>52.419929485634277</v>
+        <v>44696</v>
       </c>
       <c r="C5">
-        <v>52.48434019792186</v>
+        <v>44038</v>
       </c>
       <c r="D5">
-        <v>36.010646431988953</v>
+        <v>44696</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -483,13 +555,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>52.487299749738256</v>
+        <v>44008</v>
       </c>
       <c r="C6">
-        <v>52.480791395892972</v>
+        <v>44074</v>
       </c>
       <c r="D6">
-        <v>34.178789437485015</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -497,13 +569,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>52.586921643614431</v>
+        <v>43010</v>
       </c>
       <c r="C7">
-        <v>52.518895026832418</v>
+        <v>43689</v>
       </c>
       <c r="D7">
-        <v>33.124247553459838</v>
+        <v>43010</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -511,13 +583,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>53.200175140427213</v>
+        <v>37346</v>
       </c>
       <c r="C8">
-        <v>52.503118178513908</v>
+        <v>43848</v>
       </c>
       <c r="D8">
-        <v>31.292234552498734</v>
+        <v>37346</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -525,13 +597,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>52.545617857363126</v>
+        <v>43421</v>
       </c>
       <c r="C9">
-        <v>52.470752176203476</v>
+        <v>44176</v>
       </c>
       <c r="D9">
-        <v>34.946008524984009</v>
+        <v>43421</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -539,13 +611,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>52.56034566173993</v>
+        <v>43274</v>
       </c>
       <c r="C10">
-        <v>52.512041429688935</v>
+        <v>43758</v>
       </c>
       <c r="D10">
-        <v>31.676759418473921</v>
+        <v>43274</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -553,1273 +625,1003 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>52.331729698730413</v>
+        <v>45613</v>
       </c>
       <c r="C11">
-        <v>52.492138025867767</v>
+        <v>43959</v>
       </c>
       <c r="D11">
-        <v>31.079682661490764</v>
+        <v>45613</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>18</v>
-      </c>
       <c r="B12">
-        <v>52.231028494826255</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>52.488188008706459</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>38.649303499995419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>19</v>
-      </c>
       <c r="B13">
-        <v>52.402087586674298</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>52.495201762142152</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>33.237179812174716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2</v>
-      </c>
       <c r="B14">
-        <v>53.708619788001599</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>52.510751382206102</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>39.917011373436047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>20</v>
-      </c>
       <c r="B15">
-        <v>53.126151775837215</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>52.505991446775539</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>33.169282515142783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>21</v>
-      </c>
       <c r="B16">
-        <v>52.56416098745342</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>52.478919585514056</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>34.847819828500768</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>52.593692259225506</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>52.47793474610237</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>35.129515558432907</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>52.525958587603597</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>52.468491633446064</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>35.730264240793943</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>52.481974007723558</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>52.464759399666157</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>34.169830588007898</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>52.471538727834535</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>52.490952643446469</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>34.350666503072702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>52.530939829196456</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>52.507577512327039</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>34.324241952968976</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>52.505198631161612</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>52.470653867265028</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>32.140156350500312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>52.474292780898992</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>52.492928460599835</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>34.298941604616104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>53.11074537819637</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>52.483156941674679</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>37.139976601020962</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>52.50926334189127</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>52.498564476068594</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>32.15024692010757</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>52.556232881805116</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>52.492829648390483</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>31.945568063597808</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>31</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>52.53074046979782</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>52.493719039220636</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>32.704520081088894</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>32</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28">
-        <v>52.486411672407776</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>52.492138025867767</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>33.064663175441844</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>52.872152747307879</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>52.492829648390483</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>33.942257795590542</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30">
-        <v>52.473997620234712</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>52.496487198273876</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>32.611837938218599</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31">
-        <v>52.664040572465893</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>52.497080604835972</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>32.176733402374694</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>36</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32">
-        <v>52.510552947370137</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>52.486214346549282</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>36.687726749463465</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>37</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33">
-        <v>52.712204138100361</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>52.474391172245049</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>36.721433156912433</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34">
-        <v>52.426541825089373</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>52.470064060362489</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>38.92164335845542</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35">
-        <v>53.13977769981031</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>52.508569097522226</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>35.30174965327349</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36">
-        <v>52.149193260039965</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>52.490063818907643</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>39.254269645850329</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37">
-        <v>52.262493496192931</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>52.490360073542561</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>36.350631807761907</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38">
-        <v>52.384511436802292</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>52.488089304293482</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>36.894050857972481</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>42</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39">
-        <v>52.506090558904418</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>52.525460777534512</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>32.224309447469366</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>43</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40">
-        <v>52.477245491371278</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>52.491248958720973</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>39.562165923575165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>44</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>52.246125653085194</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>52.47783627444322</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>36.017361861596001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>52.040554249016715</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>52.494806319863791</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>42.718298741207363</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>46</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43">
-        <v>52.085033409123369</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>52.488385424262617</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>37.334900453051127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>47</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44">
-        <v>52.48029873599215</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>52.479412088981206</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>32.684199087762011</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>48</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45">
-        <v>52.735233736412525</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>52.489471370258052</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>35.524739908282214</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>49</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46">
-        <v>52.527551963386315</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>52.507379222453068</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>31.670426222767752</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47">
-        <v>52.541419070552955</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>52.491940439661221</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>32.069795682214817</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>50</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48">
-        <v>52.510354521600519</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>52.490360073542561</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>30.349178310379482</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>51</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49">
-        <v>52.511445975541292</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>52.48414296615821</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>32.560369748019141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50">
-        <v>52.515119244057679</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>52.509858496836223</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>31.465240848408286</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>53</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51">
-        <v>52.555731589622525</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>52.494905177057817</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>30.129600456117981</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>54</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52">
-        <v>52.529644156657099</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>52.508271598190987</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>31.12647874076179</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53">
-        <v>52.566270895794403</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>52.472128735056415</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>31.237320558603969</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>56</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54">
-        <v>52.528149630051956</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>52.468491633446064</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>32.427522864535483</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55">
-        <v>52.606555151638254</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>52.490458829578614</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>27.392416952441124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>58</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56">
-        <v>52.538422420529031</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>52.490656348387922</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>31.297555200947006</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>59</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57">
-        <v>52.514622674828232</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>52.495893872781934</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>28.465375409443819</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58">
-        <v>52.518895026832418</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>52.501434732209532</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>31.786310537231039</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59">
-        <v>52.53074046979782</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>52.498564476068594</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>29.697660693372676</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60">
-        <v>52.829340453066386</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>52.500048854474706</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>29.626529104333908</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>62</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61">
-        <v>52.821126792959952</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>52.482762594555645</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>35.096988856062246</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>63</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62">
-        <v>52.687022169100985</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>52.475670462633211</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>26.827745811413859</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>64</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63">
-        <v>52.882732924869273</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>52.482368283240774</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>27.124746365945892</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>65</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64">
-        <v>53.571954563357068</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>52.469572615790895</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>31.669132899359571</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>66</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65">
-        <v>52.707425963457275</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>52.472227077386705</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>28.440380542697689</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>67</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66">
-        <v>52.495498367482021</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>52.47360410388432</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>30.588219390287211</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67">
-        <v>52.768797694758909</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>52.489570106087342</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>28.158673939133564</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68">
-        <v>52.606250864034756</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>52.481974007723558</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>26.214904027813223</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69">
-        <v>52.660547311718119</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>52.502523946479187</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>35.297638642673604</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70">
-        <v>52.597030923828633</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>52.495597240430357</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>26.870622790797341</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71">
-        <v>52.513232582965472</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>52.486214346549282</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>28.094856404326528</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72">
-        <v>52.569689112644028</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>52.518099852350261</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>28.96522939727911</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73">
-        <v>52.542218526560916</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>52.500345791047266</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>29.022683268790562</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74">
-        <v>52.522176661404458</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>52.483748529500289</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>29.913302075363806</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75">
-        <v>52.540320058779734</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>52.499059212500903</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>30.612359128159401</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>76</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76">
-        <v>52.529046284296712</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>52.493521381072995</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>31.396332828504203</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>77</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77">
-        <v>52.526556035017464</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>52.48611568698206</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>29.627784103738449</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>78</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78">
-        <v>52.522773588739469</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>52.511049051461221</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>30.937392664541417</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>79</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79">
-        <v>52.56506510837248</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>52.489570106087342</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>30.626359320961079</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80">
-        <v>52.432287170374366</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>52.485523776640768</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>39.279732133244167</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81">
-        <v>52.571902334513069</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>52.502325887201124</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>32.538373492403259</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82">
-        <v>52.456030647952474</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>52.487299749738256</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>31.987407769911101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>82</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83">
-        <v>52.383740488445582</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>52.493719039220636</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>31.247146807255103</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>83</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84">
-        <v>53.059331558758075</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>52.475079974089297</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>28.105604896667753</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>84</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85">
-        <v>52.855578655818611</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>52.489767584480383</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>36.573820562985951</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>85</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86">
-        <v>52.554528724410837</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>52.501038722013071</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>35.692237152262976</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87">
-        <v>53.269806290645846</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>52.479018081739468</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>38.775504236492488</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88">
-        <v>52.561851310982128</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>52.524266266127945</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>29.013868757291021</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89">
-        <v>52.691881379646702</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>52.465937653337747</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>35.887983569415809</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>89</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90">
-        <v>52.72594468109596</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>52.505297725198766</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>32.889469072961994</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91">
-        <v>52.587931513359493</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>52.49510289819689</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>34.054538171330726</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>90</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92">
-        <v>52.489076449386722</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>52.504901362615762</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>32.134075760542416</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>91</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93">
-        <v>52.555230355295805</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>52.487990602123745</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>35.001355897451603</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>92</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94">
-        <v>52.566371393192725</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>52.487694509073073</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>35.046347631953807</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>93</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95">
-        <v>52.477442410132518</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>52.506487030040255</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>32.657832728561019</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>94</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96">
-        <v>52.363455975320008</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>52.49579499308021</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>29.784966418938595</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>95</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97">
-        <v>52.470653867265028</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>52.492039231640824</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>32.026323406995459</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98">
-        <v>52.399475638092696</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>52.490360073542561</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>32.172744197090267</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>97</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99">
-        <v>52.375076736626049</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>52.482664013370538</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>29.610567584841935</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>98</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100">
-        <v>52.514821295706781</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>52.497278425042751</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>30.95767202344636</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>99</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101">
-        <v>52.453386064370406</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>52.492632030716166</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>30.534057815189666</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/code/PSNR.xlsx
+++ b/code/PSNR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B8CB7C0C-34F0-428A-8687-0A36F2840A39}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ABD28683-836D-473C-A9E0-7BA333230410}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{047A2B34-79FB-436B-9C99-017AA34A6AEE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{ECC0FC8B-ECD6-49CB-AAEE-DFAD19D18CF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Image Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,11 +35,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LSB_pair</t>
+    <t>LSB-DES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LSB-pair-ultar</t>
+    <t>LSB-pair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSB-pair1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,16 +475,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3EDE64-3313-4595-BCB7-E58CABA61B58}">
-  <dimension ref="A1:D101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA438ACE-CA1F-428B-9733-83ABB97AD5DB}">
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D101"/>
+      <selection activeCell="B2" sqref="B2:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,8 +497,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -505,10 +512,13 @@
         <v>43922</v>
       </c>
       <c r="D2">
-        <v>44545</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43922</v>
+      </c>
+      <c r="E2">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -519,10 +529,13 @@
         <v>43991</v>
       </c>
       <c r="D3">
-        <v>43913</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43991</v>
+      </c>
+      <c r="E3">
+        <v>43991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100</v>
       </c>
@@ -533,10 +546,13 @@
         <v>43833</v>
       </c>
       <c r="D4">
-        <v>44591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43833</v>
+      </c>
+      <c r="E4">
+        <v>43833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11</v>
       </c>
@@ -547,10 +563,13 @@
         <v>44038</v>
       </c>
       <c r="D5">
-        <v>44696</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44038</v>
+      </c>
+      <c r="E5">
+        <v>44038</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>12</v>
       </c>
@@ -561,10 +580,13 @@
         <v>44074</v>
       </c>
       <c r="D6">
-        <v>44008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44074</v>
+      </c>
+      <c r="E6">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>13</v>
       </c>
@@ -575,10 +597,13 @@
         <v>43689</v>
       </c>
       <c r="D7">
-        <v>43010</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43689</v>
+      </c>
+      <c r="E7">
+        <v>43689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>14</v>
       </c>
@@ -589,10 +614,13 @@
         <v>43848</v>
       </c>
       <c r="D8">
-        <v>37346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43848</v>
+      </c>
+      <c r="E8">
+        <v>43848</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>15</v>
       </c>
@@ -603,10 +631,13 @@
         <v>44176</v>
       </c>
       <c r="D9">
-        <v>43421</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44176</v>
+      </c>
+      <c r="E9">
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>16</v>
       </c>
@@ -617,10 +648,13 @@
         <v>43758</v>
       </c>
       <c r="D10">
-        <v>43274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43758</v>
+      </c>
+      <c r="E10">
+        <v>43758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>17</v>
       </c>
@@ -631,10 +665,13 @@
         <v>43959</v>
       </c>
       <c r="D11">
-        <v>45613</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43959</v>
+      </c>
+      <c r="E11">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>0</v>
       </c>
@@ -644,8 +681,11 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>0</v>
       </c>
@@ -655,8 +695,11 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>0</v>
       </c>
@@ -666,8 +709,11 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>0</v>
       </c>
@@ -677,8 +723,11 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>0</v>
       </c>
@@ -688,8 +737,11 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>0</v>
       </c>
@@ -699,8 +751,11 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>0</v>
       </c>
@@ -710,8 +765,11 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>0</v>
       </c>
@@ -721,8 +779,11 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>0</v>
       </c>
@@ -732,8 +793,11 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>0</v>
       </c>
@@ -743,8 +807,11 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>0</v>
       </c>
@@ -754,8 +821,11 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>0</v>
       </c>
@@ -765,8 +835,11 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>0</v>
       </c>
@@ -776,8 +849,11 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>0</v>
       </c>
@@ -787,8 +863,11 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>0</v>
       </c>
@@ -798,8 +877,11 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>0</v>
       </c>
@@ -809,8 +891,11 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>0</v>
       </c>
@@ -820,8 +905,11 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>0</v>
       </c>
@@ -831,8 +919,11 @@
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>0</v>
       </c>
@@ -842,8 +933,11 @@
       <c r="D30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>0</v>
       </c>
@@ -853,8 +947,11 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>0</v>
       </c>
@@ -864,8 +961,11 @@
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>0</v>
       </c>
@@ -875,8 +975,11 @@
       <c r="D33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>0</v>
       </c>
@@ -886,8 +989,11 @@
       <c r="D34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>0</v>
       </c>
@@ -897,8 +1003,11 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>0</v>
       </c>
@@ -908,8 +1017,11 @@
       <c r="D36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>0</v>
       </c>
@@ -919,8 +1031,11 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>0</v>
       </c>
@@ -930,8 +1045,11 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>0</v>
       </c>
@@ -941,8 +1059,11 @@
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>0</v>
       </c>
@@ -952,8 +1073,11 @@
       <c r="D40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>0</v>
       </c>
@@ -963,8 +1087,11 @@
       <c r="D41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>0</v>
       </c>
@@ -974,8 +1101,11 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>0</v>
       </c>
@@ -985,8 +1115,11 @@
       <c r="D43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>0</v>
       </c>
@@ -996,8 +1129,11 @@
       <c r="D44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>0</v>
       </c>
@@ -1007,8 +1143,11 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>0</v>
       </c>
@@ -1018,8 +1157,11 @@
       <c r="D46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>0</v>
       </c>
@@ -1029,8 +1171,11 @@
       <c r="D47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>0</v>
       </c>
@@ -1040,8 +1185,11 @@
       <c r="D48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>0</v>
       </c>
@@ -1051,8 +1199,11 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>0</v>
       </c>
@@ -1062,8 +1213,11 @@
       <c r="D50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>0</v>
       </c>
@@ -1073,8 +1227,11 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>0</v>
       </c>
@@ -1084,8 +1241,11 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>0</v>
       </c>
@@ -1095,8 +1255,11 @@
       <c r="D53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>0</v>
       </c>
@@ -1106,8 +1269,11 @@
       <c r="D54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>0</v>
       </c>
@@ -1117,8 +1283,11 @@
       <c r="D55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>0</v>
       </c>
@@ -1128,8 +1297,11 @@
       <c r="D56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>0</v>
       </c>
@@ -1139,8 +1311,11 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>0</v>
       </c>
@@ -1150,8 +1325,11 @@
       <c r="D58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>0</v>
       </c>
@@ -1161,8 +1339,11 @@
       <c r="D59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>0</v>
       </c>
@@ -1172,8 +1353,11 @@
       <c r="D60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>0</v>
       </c>
@@ -1183,8 +1367,11 @@
       <c r="D61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>0</v>
       </c>
@@ -1194,8 +1381,11 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>0</v>
       </c>
@@ -1205,8 +1395,11 @@
       <c r="D63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>0</v>
       </c>
@@ -1216,8 +1409,11 @@
       <c r="D64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>0</v>
       </c>
@@ -1227,8 +1423,11 @@
       <c r="D65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>0</v>
       </c>
@@ -1238,8 +1437,11 @@
       <c r="D66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>0</v>
       </c>
@@ -1249,8 +1451,11 @@
       <c r="D67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>0</v>
       </c>
@@ -1260,8 +1465,11 @@
       <c r="D68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>0</v>
       </c>
@@ -1271,8 +1479,11 @@
       <c r="D69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>0</v>
       </c>
@@ -1282,8 +1493,11 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>0</v>
       </c>
@@ -1293,8 +1507,11 @@
       <c r="D71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>0</v>
       </c>
@@ -1304,8 +1521,11 @@
       <c r="D72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>0</v>
       </c>
@@ -1315,8 +1535,11 @@
       <c r="D73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>0</v>
       </c>
@@ -1326,8 +1549,11 @@
       <c r="D74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>0</v>
       </c>
@@ -1337,8 +1563,11 @@
       <c r="D75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>0</v>
       </c>
@@ -1348,8 +1577,11 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>0</v>
       </c>
@@ -1359,8 +1591,11 @@
       <c r="D77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>0</v>
       </c>
@@ -1370,8 +1605,11 @@
       <c r="D78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>0</v>
       </c>
@@ -1381,8 +1619,11 @@
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>0</v>
       </c>
@@ -1392,8 +1633,11 @@
       <c r="D80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>0</v>
       </c>
@@ -1403,8 +1647,11 @@
       <c r="D81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>0</v>
       </c>
@@ -1414,8 +1661,11 @@
       <c r="D82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>0</v>
       </c>
@@ -1425,8 +1675,11 @@
       <c r="D83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>0</v>
       </c>
@@ -1436,8 +1689,11 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>0</v>
       </c>
@@ -1447,8 +1703,11 @@
       <c r="D85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>0</v>
       </c>
@@ -1458,8 +1717,11 @@
       <c r="D86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>0</v>
       </c>
@@ -1469,8 +1731,11 @@
       <c r="D87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>0</v>
       </c>
@@ -1480,8 +1745,11 @@
       <c r="D88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>0</v>
       </c>
@@ -1491,8 +1759,11 @@
       <c r="D89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>0</v>
       </c>
@@ -1502,8 +1773,11 @@
       <c r="D90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>0</v>
       </c>
@@ -1513,8 +1787,11 @@
       <c r="D91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>0</v>
       </c>
@@ -1524,8 +1801,11 @@
       <c r="D92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>0</v>
       </c>
@@ -1535,8 +1815,11 @@
       <c r="D93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>0</v>
       </c>
@@ -1546,8 +1829,11 @@
       <c r="D94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>0</v>
       </c>
@@ -1557,8 +1843,11 @@
       <c r="D95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>0</v>
       </c>
@@ -1568,8 +1857,11 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>0</v>
       </c>
@@ -1579,8 +1871,11 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>0</v>
       </c>
@@ -1590,8 +1885,11 @@
       <c r="D98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>0</v>
       </c>
@@ -1601,8 +1899,11 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>0</v>
       </c>
@@ -1612,8 +1913,11 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>0</v>
       </c>
@@ -1621,6 +1925,9 @@
         <v>0</v>
       </c>
       <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
         <v>0</v>
       </c>
     </row>

--- a/code/PSNR.xlsx
+++ b/code/PSNR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ABD28683-836D-473C-A9E0-7BA333230410}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{63FEF467-F9AB-4C5F-AEF3-759EC1EF072B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{ECC0FC8B-ECD6-49CB-AAEE-DFAD19D18CF4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{047A2B34-79FB-436B-9C99-017AA34A6AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Image Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,15 +35,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LSB-DES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LSB-pair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LSB-pair1</t>
+    <t>LSB-pair-ultar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,16 +467,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA438ACE-CA1F-428B-9733-83ABB97AD5DB}">
-  <dimension ref="A1:E101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3EDE64-3313-4595-BCB7-E58CABA61B58}">
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E101"/>
+      <selection activeCell="B2" sqref="B2:C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,13 +487,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -509,16 +498,13 @@
         <v>44545</v>
       </c>
       <c r="C2">
-        <v>43922</v>
+        <v>44554</v>
       </c>
       <c r="D2">
-        <v>43922</v>
-      </c>
-      <c r="E2">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>44545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -526,16 +512,13 @@
         <v>43913</v>
       </c>
       <c r="C3">
-        <v>43991</v>
+        <v>43921</v>
       </c>
       <c r="D3">
-        <v>43991</v>
-      </c>
-      <c r="E3">
-        <v>43991</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100</v>
       </c>
@@ -543,16 +526,13 @@
         <v>44591</v>
       </c>
       <c r="C4">
-        <v>43833</v>
+        <v>44599</v>
       </c>
       <c r="D4">
-        <v>43833</v>
-      </c>
-      <c r="E4">
-        <v>43833</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>44591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11</v>
       </c>
@@ -560,16 +540,13 @@
         <v>44696</v>
       </c>
       <c r="C5">
-        <v>44038</v>
+        <v>44710</v>
       </c>
       <c r="D5">
-        <v>44038</v>
-      </c>
-      <c r="E5">
-        <v>44038</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>12</v>
       </c>
@@ -577,16 +554,13 @@
         <v>44008</v>
       </c>
       <c r="C6">
-        <v>44074</v>
+        <v>44016</v>
       </c>
       <c r="D6">
-        <v>44074</v>
-      </c>
-      <c r="E6">
-        <v>44074</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>13</v>
       </c>
@@ -594,16 +568,13 @@
         <v>43010</v>
       </c>
       <c r="C7">
-        <v>43689</v>
+        <v>43010</v>
       </c>
       <c r="D7">
-        <v>43689</v>
-      </c>
-      <c r="E7">
-        <v>43689</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>14</v>
       </c>
@@ -611,16 +582,13 @@
         <v>37346</v>
       </c>
       <c r="C8">
-        <v>43848</v>
+        <v>37354</v>
       </c>
       <c r="D8">
-        <v>43848</v>
-      </c>
-      <c r="E8">
-        <v>43848</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>15</v>
       </c>
@@ -628,16 +596,13 @@
         <v>43421</v>
       </c>
       <c r="C9">
-        <v>44176</v>
+        <v>43426</v>
       </c>
       <c r="D9">
-        <v>44176</v>
-      </c>
-      <c r="E9">
-        <v>44176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>16</v>
       </c>
@@ -645,16 +610,13 @@
         <v>43274</v>
       </c>
       <c r="C10">
-        <v>43758</v>
+        <v>43283</v>
       </c>
       <c r="D10">
-        <v>43758</v>
-      </c>
-      <c r="E10">
-        <v>43758</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>17</v>
       </c>
@@ -662,16 +624,13 @@
         <v>45613</v>
       </c>
       <c r="C11">
-        <v>43959</v>
+        <v>45620</v>
       </c>
       <c r="D11">
-        <v>43959</v>
-      </c>
-      <c r="E11">
-        <v>43959</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>45613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>0</v>
       </c>
@@ -681,11 +640,8 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>0</v>
       </c>
@@ -695,11 +651,8 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>0</v>
       </c>
@@ -709,11 +662,8 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>0</v>
       </c>
@@ -723,11 +673,8 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>0</v>
       </c>
@@ -737,11 +684,8 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>0</v>
       </c>
@@ -751,11 +695,8 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>0</v>
       </c>
@@ -765,11 +706,8 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>0</v>
       </c>
@@ -779,11 +717,8 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>0</v>
       </c>
@@ -793,11 +728,8 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>0</v>
       </c>
@@ -807,11 +739,8 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>0</v>
       </c>
@@ -821,11 +750,8 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>0</v>
       </c>
@@ -835,11 +761,8 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>0</v>
       </c>
@@ -849,11 +772,8 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>0</v>
       </c>
@@ -863,11 +783,8 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>0</v>
       </c>
@@ -877,11 +794,8 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>0</v>
       </c>
@@ -891,11 +805,8 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>0</v>
       </c>
@@ -905,11 +816,8 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>0</v>
       </c>
@@ -919,11 +827,8 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>0</v>
       </c>
@@ -933,11 +838,8 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>0</v>
       </c>
@@ -947,11 +849,8 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>0</v>
       </c>
@@ -961,11 +860,8 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>0</v>
       </c>
@@ -975,11 +871,8 @@
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>0</v>
       </c>
@@ -989,11 +882,8 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>0</v>
       </c>
@@ -1003,11 +893,8 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>0</v>
       </c>
@@ -1017,11 +904,8 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>0</v>
       </c>
@@ -1031,11 +915,8 @@
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>0</v>
       </c>
@@ -1045,11 +926,8 @@
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>0</v>
       </c>
@@ -1059,11 +937,8 @@
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>0</v>
       </c>
@@ -1073,11 +948,8 @@
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>0</v>
       </c>
@@ -1087,11 +959,8 @@
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>0</v>
       </c>
@@ -1101,11 +970,8 @@
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>0</v>
       </c>
@@ -1115,11 +981,8 @@
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>0</v>
       </c>
@@ -1129,11 +992,8 @@
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>0</v>
       </c>
@@ -1143,11 +1003,8 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>0</v>
       </c>
@@ -1157,11 +1014,8 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>0</v>
       </c>
@@ -1171,11 +1025,8 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>0</v>
       </c>
@@ -1185,11 +1036,8 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>0</v>
       </c>
@@ -1199,11 +1047,8 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>0</v>
       </c>
@@ -1213,11 +1058,8 @@
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>0</v>
       </c>
@@ -1227,11 +1069,8 @@
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>0</v>
       </c>
@@ -1241,11 +1080,8 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>0</v>
       </c>
@@ -1255,11 +1091,8 @@
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>0</v>
       </c>
@@ -1269,11 +1102,8 @@
       <c r="D54">
         <v>0</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>0</v>
       </c>
@@ -1283,11 +1113,8 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>0</v>
       </c>
@@ -1297,11 +1124,8 @@
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>0</v>
       </c>
@@ -1311,11 +1135,8 @@
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>0</v>
       </c>
@@ -1325,11 +1146,8 @@
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>0</v>
       </c>
@@ -1339,11 +1157,8 @@
       <c r="D59">
         <v>0</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>0</v>
       </c>
@@ -1353,11 +1168,8 @@
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>0</v>
       </c>
@@ -1367,11 +1179,8 @@
       <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>0</v>
       </c>
@@ -1381,11 +1190,8 @@
       <c r="D62">
         <v>0</v>
       </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>0</v>
       </c>
@@ -1395,11 +1201,8 @@
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>0</v>
       </c>
@@ -1409,11 +1212,8 @@
       <c r="D64">
         <v>0</v>
       </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>0</v>
       </c>
@@ -1423,11 +1223,8 @@
       <c r="D65">
         <v>0</v>
       </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>0</v>
       </c>
@@ -1437,11 +1234,8 @@
       <c r="D66">
         <v>0</v>
       </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>0</v>
       </c>
@@ -1451,11 +1245,8 @@
       <c r="D67">
         <v>0</v>
       </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>0</v>
       </c>
@@ -1465,11 +1256,8 @@
       <c r="D68">
         <v>0</v>
       </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>0</v>
       </c>
@@ -1479,11 +1267,8 @@
       <c r="D69">
         <v>0</v>
       </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>0</v>
       </c>
@@ -1493,11 +1278,8 @@
       <c r="D70">
         <v>0</v>
       </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>0</v>
       </c>
@@ -1507,11 +1289,8 @@
       <c r="D71">
         <v>0</v>
       </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>0</v>
       </c>
@@ -1521,11 +1300,8 @@
       <c r="D72">
         <v>0</v>
       </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>0</v>
       </c>
@@ -1535,11 +1311,8 @@
       <c r="D73">
         <v>0</v>
       </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>0</v>
       </c>
@@ -1549,11 +1322,8 @@
       <c r="D74">
         <v>0</v>
       </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>0</v>
       </c>
@@ -1563,11 +1333,8 @@
       <c r="D75">
         <v>0</v>
       </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>0</v>
       </c>
@@ -1577,11 +1344,8 @@
       <c r="D76">
         <v>0</v>
       </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>0</v>
       </c>
@@ -1591,11 +1355,8 @@
       <c r="D77">
         <v>0</v>
       </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>0</v>
       </c>
@@ -1605,11 +1366,8 @@
       <c r="D78">
         <v>0</v>
       </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>0</v>
       </c>
@@ -1619,11 +1377,8 @@
       <c r="D79">
         <v>0</v>
       </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>0</v>
       </c>
@@ -1633,11 +1388,8 @@
       <c r="D80">
         <v>0</v>
       </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>0</v>
       </c>
@@ -1647,11 +1399,8 @@
       <c r="D81">
         <v>0</v>
       </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>0</v>
       </c>
@@ -1661,11 +1410,8 @@
       <c r="D82">
         <v>0</v>
       </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>0</v>
       </c>
@@ -1675,11 +1421,8 @@
       <c r="D83">
         <v>0</v>
       </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>0</v>
       </c>
@@ -1689,11 +1432,8 @@
       <c r="D84">
         <v>0</v>
       </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>0</v>
       </c>
@@ -1703,11 +1443,8 @@
       <c r="D85">
         <v>0</v>
       </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>0</v>
       </c>
@@ -1717,11 +1454,8 @@
       <c r="D86">
         <v>0</v>
       </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>0</v>
       </c>
@@ -1731,11 +1465,8 @@
       <c r="D87">
         <v>0</v>
       </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>0</v>
       </c>
@@ -1745,11 +1476,8 @@
       <c r="D88">
         <v>0</v>
       </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>0</v>
       </c>
@@ -1759,11 +1487,8 @@
       <c r="D89">
         <v>0</v>
       </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>0</v>
       </c>
@@ -1773,11 +1498,8 @@
       <c r="D90">
         <v>0</v>
       </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>0</v>
       </c>
@@ -1787,11 +1509,8 @@
       <c r="D91">
         <v>0</v>
       </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>0</v>
       </c>
@@ -1801,11 +1520,8 @@
       <c r="D92">
         <v>0</v>
       </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>0</v>
       </c>
@@ -1815,11 +1531,8 @@
       <c r="D93">
         <v>0</v>
       </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>0</v>
       </c>
@@ -1829,11 +1542,8 @@
       <c r="D94">
         <v>0</v>
       </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>0</v>
       </c>
@@ -1843,11 +1553,8 @@
       <c r="D95">
         <v>0</v>
       </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>0</v>
       </c>
@@ -1857,11 +1564,8 @@
       <c r="D96">
         <v>0</v>
       </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>0</v>
       </c>
@@ -1871,11 +1575,8 @@
       <c r="D97">
         <v>0</v>
       </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>0</v>
       </c>
@@ -1885,11 +1586,8 @@
       <c r="D98">
         <v>0</v>
       </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>0</v>
       </c>
@@ -1899,11 +1597,8 @@
       <c r="D99">
         <v>0</v>
       </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>0</v>
       </c>
@@ -1913,11 +1608,8 @@
       <c r="D100">
         <v>0</v>
       </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>0</v>
       </c>
@@ -1925,9 +1617,6 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
         <v>0</v>
       </c>
     </row>

--- a/code/PSNR.xlsx
+++ b/code/PSNR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{63FEF467-F9AB-4C5F-AEF3-759EC1EF072B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EF8D7FCF-42B7-4B84-B8AF-E07272B7EC95}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{047A2B34-79FB-436B-9C99-017AA34A6AEE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{84CA1709-3385-40B7-9640-7711B7D0F7DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Image Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSB-pair</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -467,11 +471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3EDE64-3313-4595-BCB7-E58CABA61B58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B68BE0F-5295-449D-844C-DF32104B50F0}">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C101"/>
+      <selection activeCell="B2" sqref="B2:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -487,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -498,10 +502,10 @@
         <v>44545</v>
       </c>
       <c r="C2">
-        <v>44554</v>
+        <v>44545</v>
       </c>
       <c r="D2">
-        <v>44545</v>
+        <v>47041</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -512,10 +516,10 @@
         <v>43913</v>
       </c>
       <c r="C3">
-        <v>43921</v>
+        <v>43913</v>
       </c>
       <c r="D3">
-        <v>43913</v>
+        <v>47330</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -526,10 +530,10 @@
         <v>44591</v>
       </c>
       <c r="C4">
-        <v>44599</v>
+        <v>44591</v>
       </c>
       <c r="D4">
-        <v>44591</v>
+        <v>48096</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -540,10 +544,10 @@
         <v>44696</v>
       </c>
       <c r="C5">
-        <v>44710</v>
+        <v>44696</v>
       </c>
       <c r="D5">
-        <v>44696</v>
+        <v>51330</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -554,10 +558,10 @@
         <v>44008</v>
       </c>
       <c r="C6">
-        <v>44016</v>
+        <v>44008</v>
       </c>
       <c r="D6">
-        <v>44008</v>
+        <v>47172</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -571,7 +575,7 @@
         <v>43010</v>
       </c>
       <c r="D7">
-        <v>43010</v>
+        <v>46449</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -582,10 +586,10 @@
         <v>37346</v>
       </c>
       <c r="C8">
-        <v>37354</v>
+        <v>37346</v>
       </c>
       <c r="D8">
-        <v>37346</v>
+        <v>39712</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -596,10 +600,10 @@
         <v>43421</v>
       </c>
       <c r="C9">
-        <v>43426</v>
+        <v>43421</v>
       </c>
       <c r="D9">
-        <v>43421</v>
+        <v>46569</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -610,10 +614,10 @@
         <v>43274</v>
       </c>
       <c r="C10">
-        <v>43283</v>
+        <v>43274</v>
       </c>
       <c r="D10">
-        <v>43274</v>
+        <v>47385</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -624,10 +628,10 @@
         <v>45613</v>
       </c>
       <c r="C11">
-        <v>45620</v>
+        <v>45613</v>
       </c>
       <c r="D11">
-        <v>45613</v>
+        <v>48315</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/code/PSNR.xlsx
+++ b/code/PSNR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EF8D7FCF-42B7-4B84-B8AF-E07272B7EC95}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B6548B5E-96AC-4D67-B9D0-EF5929E48BD6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{84CA1709-3385-40B7-9640-7711B7D0F7DB}"/>
   </bookViews>
@@ -505,133 +505,106 @@
         <v>44545</v>
       </c>
       <c r="D2">
-        <v>47041</v>
+        <v>44545</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>10</v>
-      </c>
       <c r="B3">
-        <v>43913</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>43913</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>47330</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>100</v>
-      </c>
       <c r="B4">
-        <v>44591</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>44591</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>48096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>11</v>
-      </c>
       <c r="B5">
-        <v>44696</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>44696</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>51330</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>12</v>
-      </c>
       <c r="B6">
-        <v>44008</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>44008</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>47172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>13</v>
-      </c>
       <c r="B7">
-        <v>43010</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>43010</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>46449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>14</v>
-      </c>
       <c r="B8">
-        <v>37346</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>37346</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>39712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>15</v>
-      </c>
       <c r="B9">
-        <v>43421</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>43421</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>46569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>16</v>
-      </c>
       <c r="B10">
-        <v>43274</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>43274</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>47385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>17</v>
-      </c>
       <c r="B11">
-        <v>45613</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>45613</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>48315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/code/PSNR.xlsx
+++ b/code/PSNR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B6548B5E-96AC-4D67-B9D0-EF5929E48BD6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E7ABDF13-1D11-41BF-89F6-1382F7F1BFDB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{84CA1709-3385-40B7-9640-7711B7D0F7DB}"/>
   </bookViews>
@@ -509,1092 +509,1389 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
       <c r="B3">
-        <v>0</v>
+        <v>43913</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>43913</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>43961</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>100</v>
+      </c>
       <c r="B4">
-        <v>0</v>
+        <v>44591</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>44591</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>45167</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>11</v>
+      </c>
       <c r="B5">
-        <v>0</v>
+        <v>44696</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>44696</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>12</v>
+      </c>
       <c r="B6">
-        <v>0</v>
+        <v>44008</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>44008</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>13</v>
+      </c>
       <c r="B7">
-        <v>0</v>
+        <v>43010</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>43010</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>43058</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>14</v>
+      </c>
       <c r="B8">
-        <v>0</v>
+        <v>37346</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>37346</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>37346</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>15</v>
+      </c>
       <c r="B9">
-        <v>0</v>
+        <v>43421</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>43421</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>43421</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>16</v>
+      </c>
       <c r="B10">
-        <v>0</v>
+        <v>43274</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>43274</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>43274</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>17</v>
+      </c>
       <c r="B11">
-        <v>0</v>
+        <v>45613</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>45613</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>45617</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>18</v>
+      </c>
       <c r="B12">
-        <v>0</v>
+        <v>46683</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>46683</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>46687</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>19</v>
+      </c>
       <c r="B13">
-        <v>0</v>
+        <v>44880</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>44880</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
       <c r="B14">
-        <v>0</v>
+        <v>33220</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>33220</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>33220</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20</v>
+      </c>
       <c r="B15">
-        <v>0</v>
+        <v>37988</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>37988</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>37988</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>21</v>
+      </c>
       <c r="B16">
-        <v>0</v>
+        <v>43236</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>43236</v>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>22</v>
+      </c>
       <c r="B17">
-        <v>0</v>
+        <v>42943</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>42943</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+        <v>42983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>23</v>
+      </c>
       <c r="B18">
-        <v>0</v>
+        <v>43618</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>43618</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>24</v>
+      </c>
       <c r="B19">
-        <v>0</v>
+        <v>44062</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>44062</v>
       </c>
       <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+        <v>44066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>25</v>
+      </c>
       <c r="B20">
-        <v>0</v>
+        <v>44168</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>44168</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>26</v>
+      </c>
       <c r="B21">
-        <v>0</v>
+        <v>43568</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>43568</v>
       </c>
       <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+        <v>45556</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>27</v>
+      </c>
       <c r="B22">
-        <v>0</v>
+        <v>43827</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>43827</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+        <v>53907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>28</v>
+      </c>
       <c r="B23">
-        <v>0</v>
+        <v>44140</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>44140</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+        <v>44140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>29</v>
+      </c>
       <c r="B24">
-        <v>0</v>
+        <v>38123</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>38123</v>
       </c>
       <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+        <v>38123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
       <c r="B25">
-        <v>0</v>
+        <v>43786</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>43786</v>
       </c>
       <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+        <v>50186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>30</v>
+      </c>
       <c r="B26">
-        <v>0</v>
+        <v>43315</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>43315</v>
       </c>
       <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>31</v>
+      </c>
       <c r="B27">
-        <v>0</v>
+        <v>43570</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>43570</v>
       </c>
       <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>32</v>
+      </c>
       <c r="B28">
-        <v>0</v>
+        <v>44017</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>44017</v>
       </c>
       <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+        <v>45617</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>33</v>
+      </c>
       <c r="B29">
-        <v>0</v>
+        <v>40276</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>40276</v>
       </c>
       <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+        <v>40276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>34</v>
+      </c>
       <c r="B30">
-        <v>0</v>
+        <v>44143</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>44143</v>
       </c>
       <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+        <v>54779</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>35</v>
+      </c>
       <c r="B31">
-        <v>0</v>
+        <v>42253</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>42253</v>
       </c>
       <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+        <v>42253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>36</v>
+      </c>
       <c r="B32">
-        <v>0</v>
+        <v>43773</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>43773</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43797</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>37</v>
+      </c>
       <c r="B33">
-        <v>0</v>
+        <v>41787</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>41787</v>
       </c>
       <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+        <v>41787</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>38</v>
+      </c>
       <c r="B34">
-        <v>0</v>
+        <v>44628</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>44628</v>
       </c>
       <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>39</v>
+      </c>
       <c r="B35">
-        <v>0</v>
+        <v>37869</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>37869</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+        <v>37869</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>4</v>
+      </c>
       <c r="B36">
-        <v>0</v>
+        <v>47571</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>47571</v>
       </c>
       <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+        <v>47571</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>40</v>
+      </c>
       <c r="B37">
-        <v>0</v>
+        <v>46346</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>46346</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+        <v>46346</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>41</v>
+      </c>
       <c r="B38">
-        <v>0</v>
+        <v>45062</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>45062</v>
       </c>
       <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+        <v>45062</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>42</v>
+      </c>
       <c r="B39">
-        <v>0</v>
+        <v>43818</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>43818</v>
       </c>
       <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43818</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>43</v>
+      </c>
       <c r="B40">
-        <v>0</v>
+        <v>44110</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>44110</v>
       </c>
       <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>44</v>
+      </c>
       <c r="B41">
-        <v>0</v>
+        <v>46521</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>46521</v>
       </c>
       <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+        <v>46521</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>45</v>
+      </c>
       <c r="B42">
-        <v>0</v>
+        <v>48776</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>48776</v>
       </c>
       <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+        <v>48776</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>46</v>
+      </c>
       <c r="B43">
-        <v>0</v>
+        <v>48279</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>48279</v>
       </c>
       <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+        <v>48279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>47</v>
+      </c>
       <c r="B44">
-        <v>0</v>
+        <v>44079</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>44079</v>
       </c>
       <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>48</v>
+      </c>
       <c r="B45">
-        <v>0</v>
+        <v>41566</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>41566</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+        <v>41566</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>49</v>
+      </c>
       <c r="B46">
-        <v>0</v>
+        <v>43602</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>43602</v>
       </c>
       <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+        <v>47374</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>5</v>
+      </c>
       <c r="B47">
-        <v>0</v>
+        <v>43463</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>43463</v>
       </c>
       <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43543</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>50</v>
+      </c>
       <c r="B48">
-        <v>0</v>
+        <v>43775</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>43775</v>
       </c>
       <c r="D48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+        <v>45339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>51</v>
+      </c>
       <c r="B49">
-        <v>0</v>
+        <v>43764</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>43764</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+        <v>46020</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>52</v>
+      </c>
       <c r="B50">
-        <v>0</v>
+        <v>43727</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>43727</v>
       </c>
       <c r="D50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43815</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>53</v>
+      </c>
       <c r="B51">
-        <v>0</v>
+        <v>43320</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>43320</v>
       </c>
       <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>54</v>
+      </c>
       <c r="B52">
-        <v>0</v>
+        <v>43581</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>43581</v>
       </c>
       <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43645</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>55</v>
+      </c>
       <c r="B53">
-        <v>0</v>
+        <v>43215</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>43215</v>
       </c>
       <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>56</v>
+      </c>
       <c r="B54">
-        <v>0</v>
+        <v>43596</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>43596</v>
       </c>
       <c r="D54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43780</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>57</v>
+      </c>
       <c r="B55">
-        <v>0</v>
+        <v>42816</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>42816</v>
       </c>
       <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43088</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>58</v>
+      </c>
       <c r="B56">
-        <v>0</v>
+        <v>43493</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>43493</v>
       </c>
       <c r="D56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43669</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>59</v>
+      </c>
       <c r="B57">
-        <v>0</v>
+        <v>43732</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>43732</v>
       </c>
       <c r="D57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+        <v>44644</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>6</v>
+      </c>
       <c r="B58">
-        <v>0</v>
+        <v>43689</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>43689</v>
       </c>
       <c r="D58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43689</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>60</v>
+      </c>
       <c r="B59">
-        <v>0</v>
+        <v>43570</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>43570</v>
       </c>
       <c r="D59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+        <v>46482</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>61</v>
+      </c>
       <c r="B60">
-        <v>0</v>
+        <v>40675</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>40675</v>
       </c>
       <c r="D60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+        <v>40955</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>62</v>
+      </c>
       <c r="B61">
-        <v>0</v>
+        <v>40752</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>40752</v>
       </c>
       <c r="D61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+        <v>40752</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>63</v>
+      </c>
       <c r="B62">
-        <v>0</v>
+        <v>42030</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>42030</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+        <v>42034</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>64</v>
+      </c>
       <c r="B63">
-        <v>0</v>
+        <v>40178</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>40178</v>
       </c>
       <c r="D63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+        <v>40374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>65</v>
+      </c>
       <c r="B64">
-        <v>0</v>
+        <v>34282</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>34282</v>
       </c>
       <c r="D64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+        <v>34282</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>66</v>
+      </c>
       <c r="B65">
-        <v>0</v>
+        <v>41833</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>41833</v>
       </c>
       <c r="D65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+        <v>41833</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>67</v>
+      </c>
       <c r="B66">
-        <v>0</v>
+        <v>43925</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>43925</v>
       </c>
       <c r="D66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+        <v>44053</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>68</v>
+      </c>
       <c r="B67">
-        <v>0</v>
+        <v>41246</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>41246</v>
       </c>
       <c r="D67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43478</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>69</v>
+      </c>
       <c r="B68">
-        <v>0</v>
+        <v>42819</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>42819</v>
       </c>
       <c r="D68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>7</v>
+      </c>
       <c r="B69">
-        <v>0</v>
+        <v>42287</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>42287</v>
       </c>
       <c r="D69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+        <v>61343</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>70</v>
+      </c>
       <c r="B70">
-        <v>0</v>
+        <v>42910</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>42910</v>
       </c>
       <c r="D70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+        <v>44018</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>71</v>
+      </c>
       <c r="B71">
-        <v>0</v>
+        <v>43746</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>43746</v>
       </c>
       <c r="D71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43810</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>72</v>
+      </c>
       <c r="B72">
-        <v>0</v>
+        <v>43181</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>43181</v>
       </c>
       <c r="D72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+        <v>97981</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>73</v>
+      </c>
       <c r="B73">
-        <v>0</v>
+        <v>43455</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>43455</v>
       </c>
       <c r="D73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+        <v>59891</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>74</v>
+      </c>
       <c r="B74">
-        <v>0</v>
+        <v>43656</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>43656</v>
       </c>
       <c r="D74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>75</v>
+      </c>
       <c r="B75">
-        <v>0</v>
+        <v>43474</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>43474</v>
       </c>
       <c r="D75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+        <v>60126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>76</v>
+      </c>
       <c r="B76">
-        <v>0</v>
+        <v>43587</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>43587</v>
       </c>
       <c r="D76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+        <v>80703</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>77</v>
+      </c>
       <c r="B77">
-        <v>0</v>
+        <v>43612</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>43612</v>
       </c>
       <c r="D77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>78</v>
+      </c>
       <c r="B78">
-        <v>0</v>
+        <v>43650</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>43650</v>
       </c>
       <c r="D78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+        <v>77274</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>79</v>
+      </c>
       <c r="B79">
-        <v>0</v>
+        <v>43227</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>43227</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>8</v>
+      </c>
       <c r="B80">
-        <v>0</v>
+        <v>44569</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>44569</v>
       </c>
       <c r="D80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+        <v>45497</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
       <c r="B81">
-        <v>0</v>
+        <v>43159</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>43159</v>
       </c>
       <c r="D81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+        <v>53239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
       <c r="B82">
-        <v>0</v>
+        <v>44326</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>44326</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
       <c r="B83">
-        <v>0</v>
+        <v>45070</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>45070</v>
       </c>
       <c r="D83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+        <v>45142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
       <c r="B84">
-        <v>0</v>
+        <v>38577</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>38577</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+        <v>39089</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
       <c r="B85">
-        <v>0</v>
+        <v>40430</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>40430</v>
       </c>
       <c r="D85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+        <v>40430</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
       <c r="B86">
-        <v>0</v>
+        <v>43332</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>43332</v>
       </c>
       <c r="D86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+        <v>50320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
       <c r="B87">
-        <v>0</v>
+        <v>36752</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>36752</v>
       </c>
       <c r="D87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+        <v>36752</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
       <c r="B88">
-        <v>0</v>
+        <v>43259</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>43259</v>
       </c>
       <c r="D88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
       <c r="B89">
-        <v>0</v>
+        <v>41983</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>41983</v>
       </c>
       <c r="D89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+        <v>42239</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
       <c r="B90">
-        <v>0</v>
+        <v>41655</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>41655</v>
       </c>
       <c r="D90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+        <v>41655</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>9</v>
+      </c>
       <c r="B91">
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="D91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43080</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>90</v>
+      </c>
       <c r="B92">
-        <v>0</v>
+        <v>43990</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>43990</v>
       </c>
       <c r="D92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
       <c r="B93">
-        <v>0</v>
+        <v>43325</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>43325</v>
       </c>
       <c r="D93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43325</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>92</v>
+      </c>
       <c r="B94">
-        <v>0</v>
+        <v>43214</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>43214</v>
       </c>
       <c r="D94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43214</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>93</v>
+      </c>
       <c r="B95">
-        <v>0</v>
+        <v>44108</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>44108</v>
       </c>
       <c r="D95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+        <v>44108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>94</v>
+      </c>
       <c r="B96">
-        <v>0</v>
+        <v>45281</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>45281</v>
       </c>
       <c r="D96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+        <v>45305</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>95</v>
+      </c>
       <c r="B97">
-        <v>0</v>
+        <v>44177</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>44177</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>96</v>
+      </c>
       <c r="B98">
-        <v>0</v>
+        <v>44907</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>44907</v>
       </c>
       <c r="D98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+        <v>44907</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
       <c r="B99">
-        <v>0</v>
+        <v>45160</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>45160</v>
       </c>
       <c r="D99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+        <v>45160</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>98</v>
+      </c>
       <c r="B100">
-        <v>0</v>
+        <v>43730</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>43730</v>
       </c>
       <c r="D100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+        <v>43730</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>99</v>
+      </c>
       <c r="B101">
-        <v>0</v>
+        <v>44353</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>44353</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>44353</v>
       </c>
     </row>
   </sheetData>

--- a/code/PSNR.xlsx
+++ b/code/PSNR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E7ABDF13-1D11-41BF-89F6-1382F7F1BFDB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{648F277E-EDB7-41A0-8907-89242157ECCF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{84CA1709-3385-40B7-9640-7711B7D0F7DB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{C5E17DA2-EB45-494A-BD11-9C1DFBA1C243}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,19 +28,15 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Image Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB-pair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB-pair-ultar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -96,74 +92,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -180,10 +108,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="004040"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="D1E2D6"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -471,7 +399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B68BE0F-5295-449D-844C-DF32104B50F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63687358-639D-401D-BE61-3D37C58DE96D}">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -505,7 +433,7 @@
         <v>44545</v>
       </c>
       <c r="D2">
-        <v>44545</v>
+        <v>84153</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -519,7 +447,7 @@
         <v>43913</v>
       </c>
       <c r="D3">
-        <v>43961</v>
+        <v>101669</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -533,7 +461,7 @@
         <v>44591</v>
       </c>
       <c r="D4">
-        <v>45167</v>
+        <v>142039</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -547,7 +475,7 @@
         <v>44696</v>
       </c>
       <c r="D5">
-        <v>45992</v>
+        <v>72688</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -561,7 +489,7 @@
         <v>44008</v>
       </c>
       <c r="D6">
-        <v>44008</v>
+        <v>117380</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -575,7 +503,7 @@
         <v>43010</v>
       </c>
       <c r="D7">
-        <v>43058</v>
+        <v>112450</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -589,7 +517,7 @@
         <v>37346</v>
       </c>
       <c r="D8">
-        <v>37346</v>
+        <v>109094</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -603,7 +531,7 @@
         <v>43421</v>
       </c>
       <c r="D9">
-        <v>43421</v>
+        <v>143909</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -617,7 +545,7 @@
         <v>43274</v>
       </c>
       <c r="D10">
-        <v>43274</v>
+        <v>105954</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -631,1267 +559,997 @@
         <v>45613</v>
       </c>
       <c r="D11">
-        <v>45617</v>
+        <v>137481</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>18</v>
-      </c>
       <c r="B12">
-        <v>46683</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>46683</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>46687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>19</v>
-      </c>
       <c r="B13">
-        <v>44880</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>44880</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>44880</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2</v>
-      </c>
       <c r="B14">
-        <v>33220</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>33220</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>33220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>20</v>
-      </c>
       <c r="B15">
-        <v>37988</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>37988</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>37988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>21</v>
-      </c>
       <c r="B16">
-        <v>43236</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>43236</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>43300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>42943</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>42943</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>42983</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>43618</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>43618</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>44138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>44062</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>44062</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>44066</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>44168</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>44168</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>44384</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>43568</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>43568</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>45556</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>43827</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>43827</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>53907</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>44140</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>44140</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>44140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>38123</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>38123</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>38123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>43786</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>43786</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>50186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>43315</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>43315</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>43315</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>31</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>43570</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>43570</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>43570</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>32</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28">
-        <v>44017</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>44017</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>45617</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>40276</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>40276</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>40276</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30">
-        <v>44143</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>44143</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>54779</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31">
-        <v>42253</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>42253</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>42253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>36</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32">
-        <v>43773</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>43773</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>43797</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>37</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33">
-        <v>41787</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>41787</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>41787</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34">
-        <v>44628</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>44628</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>44628</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35">
-        <v>37869</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>37869</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>37869</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36">
-        <v>47571</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>47571</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>47571</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37">
-        <v>46346</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>46346</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>46346</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38">
-        <v>45062</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>45062</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>45062</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>42</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39">
-        <v>43818</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>43818</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>43818</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>43</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40">
-        <v>44110</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>44110</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>44110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>44</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>46521</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>46521</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>46521</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>48776</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>48776</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>48776</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>46</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43">
-        <v>48279</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>48279</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>48279</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>47</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44">
-        <v>44079</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>44079</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>44079</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>48</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45">
-        <v>41566</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>41566</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>41566</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>49</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46">
-        <v>43602</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>43602</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>47374</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47">
-        <v>43463</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>43463</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>43543</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>50</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48">
-        <v>43775</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>43775</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>45339</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>51</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49">
-        <v>43764</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>43764</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>46020</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50">
-        <v>43727</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>43727</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>43815</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>53</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51">
-        <v>43320</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>43320</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>43628</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>54</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52">
-        <v>43581</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>43581</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>43645</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53">
-        <v>43215</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>43215</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>43239</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>56</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54">
-        <v>43596</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>43596</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>43780</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55">
-        <v>42816</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>42816</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>43088</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>58</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56">
-        <v>43493</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>43493</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>43669</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>59</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57">
-        <v>43732</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>43732</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>44644</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58">
-        <v>43689</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>43689</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>43689</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59">
-        <v>43570</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>43570</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>46482</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60">
-        <v>40675</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>40675</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>40955</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>62</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61">
-        <v>40752</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>40752</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>40752</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>63</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62">
-        <v>42030</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>42030</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>42034</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>64</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63">
-        <v>40178</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>40178</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>40374</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>65</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64">
-        <v>34282</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>34282</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>34282</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>66</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65">
-        <v>41833</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>41833</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>41833</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>67</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66">
-        <v>43925</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>43925</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>44053</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67">
-        <v>41246</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>41246</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>43478</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68">
-        <v>42819</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>42819</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>43107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69">
-        <v>42287</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>42287</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>61343</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70">
-        <v>42910</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>42910</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>44018</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71">
-        <v>43746</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>43746</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>43810</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72">
-        <v>43181</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>43181</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>97981</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73">
-        <v>43455</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>43455</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>59891</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74">
-        <v>43656</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>43656</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75">
-        <v>43474</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>43474</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>60126</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>76</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76">
-        <v>43587</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>43587</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>80703</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>77</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77">
-        <v>43612</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>43612</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>43732</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>78</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78">
-        <v>43650</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>43650</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>77274</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>79</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79">
-        <v>43227</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>43227</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>43227</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80">
-        <v>44569</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>44569</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>45497</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81">
-        <v>43159</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>43159</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>53239</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82">
-        <v>44326</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>44326</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>44326</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>82</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83">
-        <v>45070</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>45070</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>45142</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>83</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84">
-        <v>38577</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>38577</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>39089</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>84</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85">
-        <v>40430</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>40430</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>40430</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>85</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86">
-        <v>43332</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>43332</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>50320</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>86</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87">
-        <v>36752</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>36752</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>36752</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88">
-        <v>43259</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>43259</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>44951</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89">
-        <v>41983</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>41983</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>42239</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>89</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90">
-        <v>41655</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>41655</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>41655</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91">
-        <v>43000</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>43000</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>43080</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>90</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92">
-        <v>43990</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>43990</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>43990</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>91</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93">
-        <v>43325</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>43325</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>43325</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>92</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94">
-        <v>43214</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>43214</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>43214</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>93</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95">
-        <v>44108</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>44108</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>44108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>94</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96">
-        <v>45281</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>45281</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>45305</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>95</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97">
-        <v>44177</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>44177</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>44177</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98">
-        <v>44907</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>44907</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>44907</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>97</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99">
-        <v>45160</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>45160</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>45160</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>98</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100">
-        <v>43730</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>43730</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>43730</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>99</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101">
-        <v>44353</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>44353</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>44353</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/code/PSNR.xlsx
+++ b/code/PSNR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{648F277E-EDB7-41A0-8907-89242157ECCF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2993CC63-1354-4E5E-B7E0-C844435FCB68}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{C5E17DA2-EB45-494A-BD11-9C1DFBA1C243}"/>
   </bookViews>
@@ -25,18 +25,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Image Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB-pair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LSB-pair-ultar</t>
+    <t>LSB-DES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSB-pair1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -400,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63687358-639D-401D-BE61-3D37C58DE96D}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D101"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,13 +424,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -433,10 +444,10 @@
         <v>44545</v>
       </c>
       <c r="D2">
-        <v>84153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -447,10 +458,10 @@
         <v>43913</v>
       </c>
       <c r="D3">
-        <v>101669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100</v>
       </c>
@@ -461,10 +472,10 @@
         <v>44591</v>
       </c>
       <c r="D4">
-        <v>142039</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11</v>
       </c>
@@ -475,10 +486,10 @@
         <v>44696</v>
       </c>
       <c r="D5">
-        <v>72688</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>12</v>
       </c>
@@ -489,10 +500,10 @@
         <v>44008</v>
       </c>
       <c r="D6">
-        <v>117380</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>13</v>
       </c>
@@ -503,10 +514,10 @@
         <v>43010</v>
       </c>
       <c r="D7">
-        <v>112450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43058</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>14</v>
       </c>
@@ -517,10 +528,10 @@
         <v>37346</v>
       </c>
       <c r="D8">
-        <v>109094</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>15</v>
       </c>
@@ -531,10 +542,10 @@
         <v>43421</v>
       </c>
       <c r="D9">
-        <v>143909</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>16</v>
       </c>
@@ -545,10 +556,10 @@
         <v>43274</v>
       </c>
       <c r="D10">
-        <v>105954</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>17</v>
       </c>
@@ -559,10 +570,10 @@
         <v>45613</v>
       </c>
       <c r="D11">
-        <v>137481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>0</v>
       </c>
@@ -573,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>0</v>
       </c>
@@ -584,7 +595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>0</v>
       </c>
@@ -595,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>0</v>
       </c>
@@ -606,7 +617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>0</v>
       </c>

--- a/code/PSNR.xlsx
+++ b/code/PSNR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2993CC63-1354-4E5E-B7E0-C844435FCB68}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{05812267-4BFA-49CF-832A-DE3034793FF6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{C5E17DA2-EB45-494A-BD11-9C1DFBA1C243}"/>
   </bookViews>
@@ -35,15 +35,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LSB-pair</t>
+    <t>LSB_pair</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LSB-DES</t>
+    <t>LSB_pair_dual</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LSB-pair1</t>
+    <t>LSB_pair_triple</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +411,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B2" sqref="B2:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -424,10 +424,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -446,6 +446,9 @@
       <c r="D2">
         <v>44545</v>
       </c>
+      <c r="E2">
+        <v>44545</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -458,7 +461,10 @@
         <v>43913</v>
       </c>
       <c r="D3">
-        <v>43961</v>
+        <v>43913</v>
+      </c>
+      <c r="E3">
+        <v>43913</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -472,7 +478,10 @@
         <v>44591</v>
       </c>
       <c r="D4">
-        <v>45167</v>
+        <v>44591</v>
+      </c>
+      <c r="E4">
+        <v>44591</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -486,7 +495,10 @@
         <v>44696</v>
       </c>
       <c r="D5">
-        <v>45992</v>
+        <v>44696</v>
+      </c>
+      <c r="E5">
+        <v>44696</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -502,6 +514,9 @@
       <c r="D6">
         <v>44008</v>
       </c>
+      <c r="E6">
+        <v>44008</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -514,7 +529,10 @@
         <v>43010</v>
       </c>
       <c r="D7">
-        <v>43058</v>
+        <v>43010</v>
+      </c>
+      <c r="E7">
+        <v>43010</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -530,6 +548,9 @@
       <c r="D8">
         <v>37346</v>
       </c>
+      <c r="E8">
+        <v>37346</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -544,6 +565,9 @@
       <c r="D9">
         <v>43421</v>
       </c>
+      <c r="E9">
+        <v>43421</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -558,6 +582,9 @@
       <c r="D10">
         <v>43274</v>
       </c>
+      <c r="E10">
+        <v>43274</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -570,7 +597,10 @@
         <v>45613</v>
       </c>
       <c r="D11">
-        <v>45617</v>
+        <v>45613</v>
+      </c>
+      <c r="E11">
+        <v>45613</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -583,6 +613,9 @@
       <c r="D12">
         <v>0</v>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13">
@@ -594,6 +627,9 @@
       <c r="D13">
         <v>0</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14">
@@ -605,6 +641,9 @@
       <c r="D14">
         <v>0</v>
       </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15">
@@ -616,6 +655,9 @@
       <c r="D15">
         <v>0</v>
       </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16">
@@ -627,8 +669,11 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>0</v>
       </c>
@@ -638,8 +683,11 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>0</v>
       </c>
@@ -649,8 +697,11 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>0</v>
       </c>
@@ -660,8 +711,11 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>0</v>
       </c>
@@ -671,8 +725,11 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>0</v>
       </c>
@@ -682,8 +739,11 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>0</v>
       </c>
@@ -693,8 +753,11 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>0</v>
       </c>
@@ -704,8 +767,11 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>0</v>
       </c>
@@ -715,8 +781,11 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>0</v>
       </c>
@@ -726,8 +795,11 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>0</v>
       </c>
@@ -737,8 +809,11 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>0</v>
       </c>
@@ -748,8 +823,11 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>0</v>
       </c>
@@ -759,8 +837,11 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>0</v>
       </c>
@@ -770,8 +851,11 @@
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>0</v>
       </c>
@@ -781,8 +865,11 @@
       <c r="D30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>0</v>
       </c>
@@ -792,8 +879,11 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>0</v>
       </c>
@@ -803,8 +893,11 @@
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>0</v>
       </c>
@@ -814,8 +907,11 @@
       <c r="D33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>0</v>
       </c>
@@ -825,8 +921,11 @@
       <c r="D34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>0</v>
       </c>
@@ -836,8 +935,11 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>0</v>
       </c>
@@ -847,8 +949,11 @@
       <c r="D36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>0</v>
       </c>
@@ -858,8 +963,11 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>0</v>
       </c>
@@ -869,8 +977,11 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>0</v>
       </c>
@@ -880,8 +991,11 @@
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>0</v>
       </c>
@@ -891,8 +1005,11 @@
       <c r="D40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>0</v>
       </c>
@@ -902,8 +1019,11 @@
       <c r="D41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>0</v>
       </c>
@@ -913,8 +1033,11 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>0</v>
       </c>
@@ -924,8 +1047,11 @@
       <c r="D43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>0</v>
       </c>
@@ -935,8 +1061,11 @@
       <c r="D44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>0</v>
       </c>
@@ -946,8 +1075,11 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>0</v>
       </c>
@@ -957,8 +1089,11 @@
       <c r="D46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>0</v>
       </c>
@@ -968,8 +1103,11 @@
       <c r="D47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>0</v>
       </c>
@@ -979,8 +1117,11 @@
       <c r="D48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>0</v>
       </c>
@@ -990,8 +1131,11 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>0</v>
       </c>
@@ -1001,8 +1145,11 @@
       <c r="D50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>0</v>
       </c>
@@ -1012,8 +1159,11 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>0</v>
       </c>
@@ -1023,8 +1173,11 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>0</v>
       </c>
@@ -1034,8 +1187,11 @@
       <c r="D53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>0</v>
       </c>
@@ -1045,8 +1201,11 @@
       <c r="D54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>0</v>
       </c>
@@ -1056,8 +1215,11 @@
       <c r="D55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>0</v>
       </c>
@@ -1067,8 +1229,11 @@
       <c r="D56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>0</v>
       </c>
@@ -1078,8 +1243,11 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>0</v>
       </c>
@@ -1089,8 +1257,11 @@
       <c r="D58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>0</v>
       </c>
@@ -1100,8 +1271,11 @@
       <c r="D59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>0</v>
       </c>
@@ -1111,8 +1285,11 @@
       <c r="D60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>0</v>
       </c>
@@ -1122,8 +1299,11 @@
       <c r="D61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>0</v>
       </c>
@@ -1133,8 +1313,11 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>0</v>
       </c>
@@ -1144,8 +1327,11 @@
       <c r="D63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>0</v>
       </c>
@@ -1155,8 +1341,11 @@
       <c r="D64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>0</v>
       </c>
@@ -1166,8 +1355,11 @@
       <c r="D65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>0</v>
       </c>
@@ -1177,8 +1369,11 @@
       <c r="D66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>0</v>
       </c>
@@ -1188,8 +1383,11 @@
       <c r="D67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>0</v>
       </c>
@@ -1199,8 +1397,11 @@
       <c r="D68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>0</v>
       </c>
@@ -1210,8 +1411,11 @@
       <c r="D69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>0</v>
       </c>
@@ -1221,8 +1425,11 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>0</v>
       </c>
@@ -1232,8 +1439,11 @@
       <c r="D71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>0</v>
       </c>
@@ -1243,8 +1453,11 @@
       <c r="D72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>0</v>
       </c>
@@ -1254,8 +1467,11 @@
       <c r="D73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>0</v>
       </c>
@@ -1265,8 +1481,11 @@
       <c r="D74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>0</v>
       </c>
@@ -1276,8 +1495,11 @@
       <c r="D75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>0</v>
       </c>
@@ -1287,8 +1509,11 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>0</v>
       </c>
@@ -1298,8 +1523,11 @@
       <c r="D77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>0</v>
       </c>
@@ -1309,8 +1537,11 @@
       <c r="D78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>0</v>
       </c>
@@ -1320,8 +1551,11 @@
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>0</v>
       </c>
@@ -1331,8 +1565,11 @@
       <c r="D80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>0</v>
       </c>
@@ -1342,8 +1579,11 @@
       <c r="D81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>0</v>
       </c>
@@ -1353,8 +1593,11 @@
       <c r="D82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>0</v>
       </c>
@@ -1364,8 +1607,11 @@
       <c r="D83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>0</v>
       </c>
@@ -1375,8 +1621,11 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>0</v>
       </c>
@@ -1386,8 +1635,11 @@
       <c r="D85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>0</v>
       </c>
@@ -1397,8 +1649,11 @@
       <c r="D86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>0</v>
       </c>
@@ -1408,8 +1663,11 @@
       <c r="D87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>0</v>
       </c>
@@ -1419,8 +1677,11 @@
       <c r="D88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>0</v>
       </c>
@@ -1430,8 +1691,11 @@
       <c r="D89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>0</v>
       </c>
@@ -1441,8 +1705,11 @@
       <c r="D90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>0</v>
       </c>
@@ -1452,8 +1719,11 @@
       <c r="D91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>0</v>
       </c>
@@ -1463,8 +1733,11 @@
       <c r="D92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>0</v>
       </c>
@@ -1474,8 +1747,11 @@
       <c r="D93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>0</v>
       </c>
@@ -1485,8 +1761,11 @@
       <c r="D94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>0</v>
       </c>
@@ -1496,8 +1775,11 @@
       <c r="D95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>0</v>
       </c>
@@ -1507,8 +1789,11 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>0</v>
       </c>
@@ -1518,8 +1803,11 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>0</v>
       </c>
@@ -1529,8 +1817,11 @@
       <c r="D98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>0</v>
       </c>
@@ -1540,8 +1831,11 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>0</v>
       </c>
@@ -1551,8 +1845,11 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>0</v>
       </c>
@@ -1560,6 +1857,9 @@
         <v>0</v>
       </c>
       <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
         <v>0</v>
       </c>
     </row>
